--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>6/8,9/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1236,12 +1239,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3390" topLeftCell="A35" activePane="bottomLeft"/>
-      <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1409,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>34.5</v>
+        <v>38.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1416,7 +1419,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.5</v>
+        <v>29.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2260,15 +2263,17 @@
       <c r="B49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="37">
         <v>1</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="9"/>
@@ -2281,37 +2286,53 @@
       <c r="A50" s="38">
         <v>45200</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="37"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H50" s="37"/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="37">
+        <v>1</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="45">
+        <v>45208</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>45231</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="37"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="37"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="37">
+        <v>1</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="45">
+        <v>45239</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
@@ -2332,18 +2353,15 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
-        <v>45292</v>
+      <c r="A53" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="37"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="37"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
@@ -2351,7 +2369,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2369,7 +2387,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2387,7 +2405,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2423,7 +2441,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2441,7 +2459,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2459,7 +2477,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2477,7 +2495,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2495,7 +2513,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2513,7 +2531,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2531,7 +2549,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2549,7 +2567,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2567,7 +2585,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2585,7 +2603,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2603,7 +2621,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2621,7 +2639,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2639,7 +2657,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2675,7 +2693,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2693,7 +2711,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2711,7 +2729,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2729,7 +2747,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2747,7 +2765,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2765,7 +2783,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2783,7 +2801,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2801,7 +2819,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2819,7 +2837,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2837,7 +2855,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2855,7 +2873,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2873,7 +2891,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2891,7 +2909,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2927,7 +2945,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2945,7 +2963,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2963,7 +2981,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2981,7 +2999,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2999,7 +3017,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3017,7 +3035,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3035,7 +3053,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3053,7 +3071,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3071,7 +3089,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3089,7 +3107,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3107,7 +3125,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3125,7 +3143,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3143,7 +3161,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3161,7 +3179,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3179,7 +3197,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3197,7 +3215,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3215,7 +3233,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3233,7 +3251,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3251,7 +3269,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3287,7 +3305,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3305,7 +3323,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3323,7 +3341,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3341,7 +3359,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3359,7 +3377,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3377,7 +3395,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3395,7 +3413,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3413,7 +3431,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3431,7 +3449,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3449,7 +3467,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3467,7 +3485,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3485,7 +3503,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3503,7 +3521,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3521,7 +3539,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3539,7 +3557,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3557,7 +3575,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3593,7 +3611,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3611,7 +3629,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3647,7 +3665,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3683,7 +3701,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3701,7 +3719,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3719,7 +3737,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3737,7 +3755,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3755,7 +3773,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3773,7 +3791,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3808,7 +3826,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
+      <c r="A135" s="38">
+        <v>47757</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="37"/>
@@ -3824,20 +3844,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="41"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="41"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="37"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="41"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
